--- a/results/sixteen.local/ifl_talk/nf_bench.xlsx
+++ b/results/sixteen.local/ifl_talk/nf_bench.xlsx
@@ -8,21 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweirich/github/haskell/lambda-n-ways/results/sixteen.local/ifl_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03C6C0-C8F3-5447-8666-4207F9711B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA695C5-2795-4042-B468-2DD9D4A2D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="3060" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19720" yWindow="1280" windowWidth="31480" windowHeight="21960" activeTab="1" xr2:uid="{FFB8B411-7F7C-7242-BE5B-F56B89C17B76}"/>
   </bookViews>
   <sheets>
     <sheet name="nf_bench" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$K$2:$K$4</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$L$2:$L$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$M$2:$M$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Generic</t>
+  </si>
+  <si>
+    <t>nf/Lennart.SimpleOrig/</t>
+  </si>
+  <si>
+    <t>nf/Named.Lennart/</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +446,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -607,13 +631,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -858,13 +890,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2150891515831601</c:v>
+                  <c:v>1.2933622909804301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1983944512095701</c:v>
+                  <c:v>2.20741883785437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.972355181458472</c:v>
+                  <c:v>1.0081946555176999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,13 +1012,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.91124560114834197</c:v>
+                  <c:v>1.03121082369216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30252701119544001</c:v>
+                  <c:v>0.281286731756893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.130062090361557</c:v>
+                  <c:v>0.117178582772651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,13 +1418,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>911.24560114834196</c:v>
+                  <c:v>1031.2108236921599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>302.52701119544002</c:v>
+                  <c:v>281.286731756893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.06209036155701</c:v>
+                  <c:v>117.178582772651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,13 +1540,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89.194326148255698</c:v>
+                  <c:v>70.245423080380306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8917490820739689</c:v>
+                  <c:v>6.3510818725944098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8202687308209202</c:v>
+                  <c:v>2.7136571376670999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,7 +1857,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1914,13 +1946,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89.194326148255698</c:v>
+                  <c:v>70.245423080380306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8917490820739689</c:v>
+                  <c:v>6.3510818725944098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8202687308209202</c:v>
+                  <c:v>2.7136571376670999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +1979,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2036,13 +2068,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>146.100855812503</c:v>
+                  <c:v>136.15849256475403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4408926345706909</c:v>
+                  <c:v>8.7466147158342302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2484204049828098</c:v>
+                  <c:v>3.0022429490935902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,11 +2367,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Named</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2413,41 +2445,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>Named</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strict</c:v>
+                  <c:v>DeBruijn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Generic</c:v>
+                  <c:v>LocallyNameless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2150891515831601</c:v>
+                  <c:v>1.2933622909804301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91124560114834197</c:v>
+                  <c:v>2.20741883785437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9194326148255704E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14610085581250301</c:v>
+                  <c:v>1.0081946555176999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,11 +2489,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeBruijn</c:v>
+                  <c:v>Strict</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2541,41 +2567,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>Named</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strict</c:v>
+                  <c:v>DeBruijn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Generic</c:v>
+                  <c:v>LocallyNameless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.1983944512095701</c:v>
+                  <c:v>1.03121082369216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30252701119544001</c:v>
+                  <c:v>0.281286731756893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8917490820739691E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4408926345706905E-3</c:v>
+                  <c:v>0.117178582772651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,11 +2611,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LocallyNameless</c:v>
+                  <c:v>Optimized</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2669,41 +2689,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Original</c:v>
+                  <c:v>Named</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strict</c:v>
+                  <c:v>DeBruijn</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Generic</c:v>
+                  <c:v>LocallyNameless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.972355181458472</c:v>
+                  <c:v>7.0245423080380301E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.130062090361557</c:v>
+                  <c:v>6.3510818725944097E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8202687308209202E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.24842040498281E-3</c:v>
+                  <c:v>2.7136571376670999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,6 +2725,128 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0A90-0246-AF7D-9453F9E39BD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Named</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeBruijn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LocallyNameless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.13615849256475401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7466147158342302E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0022429490935902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC8C-CC4F-B3B0-76465138FB79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2844,6 +2980,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31864716665568815"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.37574783870236994"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2873,6 +3019,381 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NORMALIZATION</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TIME </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Named</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeBruijn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LocallyNameless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.2933622909804301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.20741883785437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0081946555176999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F292-5C49-B5EC-BD4D07FD085D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1920561903"/>
+        <c:axId val="1920133023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1920561903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1920133023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1920133023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1920561903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3077,6 +3598,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5089,20 +5650,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>382270</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5129,16 +6193,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5165,16 +6229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1233170</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>356870</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5201,16 +6265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5230,6 +6294,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5658A189-D45A-F448-B384-7DC63A4AE0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5535,15 +6635,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -5571,255 +6673,255 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>1.3865848102892999</v>
+        <v>1.27468217062414</v>
       </c>
       <c r="C2">
-        <v>1.3720777650826901</v>
+        <v>1.2594519339982</v>
       </c>
       <c r="D2">
-        <v>1.4029442706584301</v>
+        <v>1.2857847992490801</v>
       </c>
       <c r="E2" s="1">
-        <v>1.94132826766906E-2</v>
+        <v>1.6747886807018698E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>4.5315250465419502E-4</v>
+        <v>9.3053225852418493E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>2.3912097905676201E-2</v>
+        <v>2.35616012673414E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2.3532171104773898</v>
-      </c>
-      <c r="C3">
-        <v>2.2958718361223802</v>
-      </c>
-      <c r="D3">
-        <v>2.4399837799149502</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.2151687223194103E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.1604931258188992E-3</v>
-      </c>
-      <c r="G3">
-        <v>0.105478333085032</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.2933622909804301</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.29109419883752</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.2973413556865101</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3.88376411354922E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.8605246531743901E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5.0518819717128597E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1.01272936443941</v>
-      </c>
-      <c r="C4">
-        <v>0.97970568737461305</v>
-      </c>
-      <c r="D4">
-        <v>1.0738515482498701</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.9675230573370097E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.57127237374271E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.1484993080808398E-2</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.20741883785437</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.1413360563358999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.3228626634354401</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.111005601995673</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.8565563271597499E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.134374930846275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.91124560114834197</v>
-      </c>
-      <c r="C5">
-        <v>0.89863741481258297</v>
-      </c>
-      <c r="D5">
-        <v>0.93308352200619904</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.0828867118807499E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9.4792720404716902E-4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.5690222573675401E-2</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.0081946555176999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.93845378612240804</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.12630104805612</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.112263502117981</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4.1160804127381902E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.13875393518444201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.30252701119544001</v>
-      </c>
-      <c r="C6">
-        <v>0.29869135034192901</v>
-      </c>
-      <c r="D6">
-        <v>0.30710273676144401</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5.2600432111847596E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.8189852556431E-3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.3501412598432096E-3</v>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.03121082369216</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.0273856230050999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.03503602437922</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.6377914469687299E-3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.68064699776005E-3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.7385780539971204E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.45570743175449002</v>
+      </c>
+      <c r="C7">
+        <v>0.455171835006694</v>
+      </c>
+      <c r="D7">
+        <v>0.456706166500225</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.7522606950805105E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.7260967849393297E-6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.15710259699122E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.281286731756893</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.28093672523498098</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.28164392745384198</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.2111674529226901E-4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.5253426878619703E-4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6.5120148580634699E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0.130062090361557</v>
-      </c>
-      <c r="C7">
-        <v>0.12789927724266101</v>
-      </c>
-      <c r="D7">
-        <v>0.132039485692036</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.2885227668386298E-3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3496375961332902E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.5289311469842103E-3</v>
+      <c r="B9" s="8">
+        <v>0.117178582772651</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.116659803702974</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.118286350638157</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.08000720952825E-3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4.4856506686903499E-4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.62797205292268E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.9194326148255704E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8.7432443229356796E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.1469722851792806E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.48190213113544E-3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.1197631711466799E-3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5.3272097270221398E-3</v>
+      <c r="B10" s="11">
+        <v>7.0245423080380301E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6.9640039179217197E-2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7.09641957903063E-2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.1646387647173699E-3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>8.8013216722867996E-4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.58875613577344E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>7.8917490820739691E-3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7.8203105186448602E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7.98155802611057E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.3193309994796199E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.8582437120963699E-4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3.0348376745855201E-4</v>
+      <c r="B11" s="11">
+        <v>6.3510818725944097E-3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6.3252504958874302E-3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6.4023132950296298E-3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.0133157593738099E-4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6.4249140011553107E-5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.87176933449975E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
-        <v>2.8202687308209202E-3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.7919640450967298E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.8745133786979098E-3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.2349882677265001E-4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.8478401489819705E-5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.9356328029511899E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.14610085581250301</v>
-      </c>
-      <c r="C11">
-        <v>0.142726758857701</v>
-      </c>
-      <c r="D11">
-        <v>0.14875942414019</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.5247943452853103E-3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.27391266042783E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.0920296169312896E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9.4408926345706905E-3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9.3355335348148001E-3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9.5966689116944604E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3.5312555571118798E-4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.8630976687113203E-4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4.9732178443944396E-4</v>
+      <c r="B12" s="11">
+        <v>2.7136571376670999E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.7080686638545699E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2.71740075682818E-3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1.5478696282870001E-5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.14584668979656E-5</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2.3687809096183402E-5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5827,22 +6929,91 @@
         <v>18</v>
       </c>
       <c r="B13" s="1">
-        <v>3.24842040498281E-3</v>
+        <v>3.0007468578004499E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>3.2017504269962801E-3</v>
+        <v>2.98466797369635E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>3.3037479359125299E-3</v>
+        <v>3.05894736049158E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>1.73543544612521E-4</v>
+        <v>8.5672592607639802E-5</v>
       </c>
       <c r="F13" s="1">
-        <v>1.28766982470763E-4</v>
+        <v>2.7430620365369701E-5</v>
       </c>
       <c r="G13" s="1">
-        <v>2.22411357857761E-4</v>
+        <v>1.7507730500417E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.13615849256475401</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.135465669526214</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.13691847831978499</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.15464435739752E-3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>8.9543903373298899E-4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.5306835438549701E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13">
+        <v>8.7466147158342302E-3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>8.7029892031280399E-3</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8.7797411471813806E-3</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.0952052244216101E-4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>8.4143455579545101E-5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1.7360745600375E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="13">
+        <v>3.0022429490935902E-3</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2.9942715302109998E-3</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3.0220826660595501E-3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3.9967598437604801E-5</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.05326185847002E-5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7.30846895354175E-5</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +7026,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="1">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5904,19 +7078,20 @@
         <v>19</v>
       </c>
       <c r="B2" s="5">
-        <v>1.2150891515831601</v>
+        <f>nf_bench!B3</f>
+        <v>1.2933622909804301</v>
       </c>
       <c r="C2" s="5">
-        <f>nf_bench!B5</f>
-        <v>0.91124560114834197</v>
+        <f>nf_bench!B6</f>
+        <v>1.03121082369216</v>
       </c>
       <c r="D2" s="5">
-        <f>nf_bench!B8</f>
-        <v>8.9194326148255704E-2</v>
+        <f>nf_bench!B10</f>
+        <v>7.0245423080380301E-2</v>
       </c>
       <c r="E2" s="5">
-        <f>nf_bench!B11</f>
-        <v>0.14610085581250301</v>
+        <f>nf_bench!B14</f>
+        <v>0.13615849256475401</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="str">
@@ -5925,15 +7100,15 @@
       </c>
       <c r="H2" s="3">
         <f>C2*1000</f>
-        <v>911.24560114834196</v>
+        <v>1031.2108236921599</v>
       </c>
       <c r="I2" s="4">
         <f>D2*1000</f>
-        <v>89.194326148255698</v>
+        <v>70.245423080380306</v>
       </c>
       <c r="J2">
         <f>H2/I2</f>
-        <v>10.216407707747029</v>
+        <v>14.68011406966925</v>
       </c>
       <c r="K2" t="str">
         <f>A2</f>
@@ -5941,11 +7116,11 @@
       </c>
       <c r="L2" s="4">
         <f>D2*1000</f>
-        <v>89.194326148255698</v>
+        <v>70.245423080380306</v>
       </c>
       <c r="M2" s="4">
         <f>E2*1000</f>
-        <v>146.100855812503</v>
+        <v>136.15849256475403</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5953,19 +7128,20 @@
         <v>20</v>
       </c>
       <c r="B3" s="5">
-        <v>2.1983944512095701</v>
+        <f>nf_bench!B4</f>
+        <v>2.20741883785437</v>
       </c>
       <c r="C3" s="5">
-        <f>nf_bench!B6</f>
-        <v>0.30252701119544001</v>
+        <f>nf_bench!B8</f>
+        <v>0.281286731756893</v>
       </c>
       <c r="D3" s="5">
-        <f>nf_bench!B9</f>
-        <v>7.8917490820739691E-3</v>
+        <f>nf_bench!B11</f>
+        <v>6.3510818725944097E-3</v>
       </c>
       <c r="E3" s="5">
-        <f>nf_bench!B12</f>
-        <v>9.4408926345706905E-3</v>
+        <f>nf_bench!B15</f>
+        <v>8.7466147158342302E-3</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="str">
@@ -5974,15 +7150,15 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H4" si="0">C3*1000</f>
-        <v>302.52701119544002</v>
+        <v>281.286731756893</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I4" si="1">D3*1000</f>
-        <v>7.8917490820739689</v>
+        <v>6.3510818725944098</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" si="2">H3/I3</f>
-        <v>38.334595797353366</v>
+        <v>44.289577334953755</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K4" si="3">A3</f>
@@ -5990,11 +7166,11 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L4" si="4">D3*1000</f>
-        <v>7.8917490820739689</v>
+        <v>6.3510818725944098</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M4" si="5">E3*1000</f>
-        <v>9.4408926345706909</v>
+        <v>8.7466147158342302</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6002,19 +7178,20 @@
         <v>21</v>
       </c>
       <c r="B4" s="5">
-        <v>0.972355181458472</v>
+        <f>nf_bench!B5</f>
+        <v>1.0081946555176999</v>
       </c>
       <c r="C4" s="5">
-        <f>nf_bench!B7</f>
-        <v>0.130062090361557</v>
+        <f>nf_bench!B9</f>
+        <v>0.117178582772651</v>
       </c>
       <c r="D4" s="5">
-        <f>nf_bench!B10</f>
-        <v>2.8202687308209202E-3</v>
+        <f>nf_bench!B12</f>
+        <v>2.7136571376670999E-3</v>
       </c>
       <c r="E4" s="5">
-        <f>nf_bench!B13</f>
-        <v>3.24842040498281E-3</v>
+        <f>nf_bench!B16</f>
+        <v>3.0022429490935902E-3</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="str">
@@ -6023,15 +7200,15 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>130.06209036155701</v>
+        <v>117.178582772651</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>2.8202687308209202</v>
+        <v>2.7136571376670999</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>46.116913945182347</v>
+        <v>43.181056717204918</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
@@ -6039,11 +7216,11 @@
       </c>
       <c r="L4" s="4">
         <f t="shared" si="4"/>
-        <v>2.8202687308209202</v>
+        <v>2.7136571376670999</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="5"/>
-        <v>3.2484204049828098</v>
+        <v>3.0022429490935902</v>
       </c>
     </row>
   </sheetData>

--- a/results/sixteen.local/ifl_talk/nf_bench.xlsx
+++ b/results/sixteen.local/ifl_talk/nf_bench.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweirich/github/haskell/lambda-n-ways/results/sixteen.local/ifl_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA695C5-2795-4042-B468-2DD9D4A2D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66130E4E-8B47-1F48-9FEA-BC61A4F00611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3060" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="19720" yWindow="1280" windowWidth="31480" windowHeight="21960" activeTab="1" xr2:uid="{FFB8B411-7F7C-7242-BE5B-F56B89C17B76}"/>
+    <workbookView xWindow="15360" yWindow="4220" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nf_bench" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -89,9 +88,6 @@
     <t>nf/DeBruijn.Par.GB/</t>
   </si>
   <si>
-    <t>nf/LocallyNameless.SupportInstOpt/</t>
-  </si>
-  <si>
     <t>Named</t>
   </si>
   <si>
@@ -116,10 +112,13 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>nf/Lennart.SimpleOrig/</t>
+    <t>nf/Named.Lennart/</t>
   </si>
   <si>
-    <t>nf/Named.Lennart/</t>
+    <t>nf/LocallyNameless.GenericInstOpt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -266,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,12 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -631,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -639,13 +632,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -739,11 +727,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Head-to-head</a:t>
+              <a:t>Normalization time </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> comparison (seconds)</a:t>
+              <a:t>(seconds)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -790,7 +778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>charts!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -868,7 +856,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -885,18 +873,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>charts!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2933622909804301</c:v>
+                  <c:v>1.1966524324610199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.20741883785437</c:v>
+                  <c:v>2.19978748604444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0081946555176999</c:v>
+                  <c:v>0.98206448406441804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +900,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>charts!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -990,7 +978,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1007,18 +995,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>charts!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.03121082369216</c:v>
+                  <c:v>1.0092496700684299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.281286731756893</c:v>
+                  <c:v>0.27680940735929899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.117178582772651</c:v>
+                  <c:v>0.114418391641586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,12 +1254,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Strict vs. Optimized</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (milliseconds)</a:t>
+              <a:t>Normalization time  (milliseconds)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1318,7 +1302,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>charts!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1396,7 +1380,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>charts!$G$2:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1413,18 +1397,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:f>charts!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1031.2108236921599</c:v>
+                  <c:v>1009.24967006843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>281.286731756893</c:v>
+                  <c:v>276.80940735929897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117.178582772651</c:v>
+                  <c:v>114.418391641586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,7 +1424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>charts!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,7 +1502,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:f>charts!$G$2:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1535,18 +1519,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$4</c:f>
+              <c:f>charts!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70.245423080380306</c:v>
+                  <c:v>68.947509387163308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3510818725944098</c:v>
+                  <c:v>6.2456156565579404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7136571376670999</c:v>
+                  <c:v>2.7904579448768398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,11 +1779,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Optimized vs.</a:t>
+              <a:t>Normalization time </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Generic (milliseconds)</a:t>
+              <a:t>(milliseconds)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1846,7 +1830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>charts!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1924,7 +1908,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:f>charts!$K$2:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1941,18 +1925,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$4</c:f>
+              <c:f>charts!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70.245423080380306</c:v>
+                  <c:v>68.947509387163308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3510818725944098</c:v>
+                  <c:v>6.2456156565579404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7136571376670999</c:v>
+                  <c:v>2.7904579448768398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,7 +1952,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>charts!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2046,7 +2030,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:f>charts!$K$2:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2063,18 +2047,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$4</c:f>
+              <c:f>charts!$M$2:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>136.15849256475403</c:v>
+                  <c:v>134.06362075837899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7466147158342302</c:v>
+                  <c:v>8.6473917659104291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0022429490935902</c:v>
+                  <c:v>4.81253688401278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2367,7 +2351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>charts!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2445,7 +2429,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2462,18 +2446,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>charts!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2933622909804301</c:v>
+                  <c:v>1.1966524324610199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.20741883785437</c:v>
+                  <c:v>2.19978748604444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0081946555176999</c:v>
+                  <c:v>0.98206448406441804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2473,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>charts!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2567,7 +2551,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2584,18 +2568,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>charts!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.03121082369216</c:v>
+                  <c:v>1.0092496700684299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.281286731756893</c:v>
+                  <c:v>0.27680940735929899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.117178582772651</c:v>
+                  <c:v>0.114418391641586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,7 +2595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>charts!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2689,7 +2673,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2706,18 +2690,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>charts!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0245423080380301E-2</c:v>
+                  <c:v>6.8947509387163305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3510818725944097E-3</c:v>
+                  <c:v>6.2456156565579403E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7136571376670999E-3</c:v>
+                  <c:v>2.7904579448768401E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,7 +2717,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>charts!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2811,7 +2795,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2828,18 +2812,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>charts!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13615849256475401</c:v>
+                  <c:v>0.13406362075837899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7466147158342302E-3</c:v>
+                  <c:v>8.6473917659104296E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0022429490935902E-3</c:v>
+                  <c:v>4.8125368840127797E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,11 +3082,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>NORMALIZATION</a:t>
+              <a:t>Normalization time (seconds)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> TIME </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3149,7 +3133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>charts!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3227,7 +3211,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>charts!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3244,18 +3228,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>charts!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.2933622909804301</c:v>
+                  <c:v>1.1966524324610199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.20741883785437</c:v>
+                  <c:v>2.19978748604444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0081946555176999</c:v>
+                  <c:v>0.98206448406441804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6638,9 +6622,8 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6672,118 +6655,100 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>1.27468217062414</v>
-      </c>
-      <c r="C2">
-        <v>1.2594519339982</v>
-      </c>
-      <c r="D2">
-        <v>1.2857847992490801</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.6747886807018698E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9.3053225852418493E-3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.35616012673414E-2</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.2933622909804301</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.29109419883752</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.2973413556865101</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3.88376411354922E-3</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.8605246531743901E-4</v>
-      </c>
-      <c r="G3" s="7">
-        <v>5.0518819717128597E-3</v>
+      <c r="B3">
+        <v>1.1966524324610199</v>
+      </c>
+      <c r="C3">
+        <v>1.19111338900984</v>
+      </c>
+      <c r="D3">
+        <v>1.19871424329054</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.74516729326849E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.6829674859764E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.7615481497691702E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>2.20741883785437</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2.1413360563358999</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.3228626634354401</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.111005601995673</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.8565563271597499E-3</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.134374930846275</v>
+      <c r="B4">
+        <v>2.19978748604444</v>
+      </c>
+      <c r="C4">
+        <v>2.1382552497561802</v>
+      </c>
+      <c r="D4">
+        <v>2.3174008976675302</v>
+      </c>
+      <c r="E4">
+        <v>0.116144094260765</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0869497329534701E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.141015663006508</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.0081946555176999</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.93845378612240804</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.12630104805612</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.112263502117981</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.1160804127381902E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.13875393518444201</v>
+      <c r="B5">
+        <v>0.98206448406441804</v>
+      </c>
+      <c r="C5">
+        <v>0.938731198562891</v>
+      </c>
+      <c r="D5">
+        <v>1.0422602708094899</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.8626046492637897E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.7647189505320598E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.9696716974036796E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1.03121082369216</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.0273856230050999</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1.03503602437922</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.6377914469687299E-3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2.68064699776005E-3</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5.7385780539971204E-3</v>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1.0092496700684299</v>
+      </c>
+      <c r="C6">
+        <v>1.0045221126310899</v>
+      </c>
+      <c r="D6">
+        <v>1.0129495058790701</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.9302470123662101E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3734214312946299E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.7315202039889104E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6791,229 +6756,214 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.45570743175449002</v>
+        <v>0.43793049910527698</v>
       </c>
       <c r="C7">
-        <v>0.455171835006694</v>
+        <v>0.43254317710670798</v>
       </c>
       <c r="D7">
-        <v>0.456706166500225</v>
+        <v>0.44232522179299799</v>
       </c>
       <c r="E7" s="1">
-        <v>9.7522606950805105E-4</v>
+        <v>6.35180949786689E-3</v>
       </c>
       <c r="F7" s="1">
-        <v>7.7260967849393297E-6</v>
+        <v>2.2680822512484099E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>1.15710259699122E-3</v>
+        <v>7.5302215104724301E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.281286731756893</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.28093672523498098</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.28164392745384198</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.2111674529226901E-4</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2.5253426878619703E-4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>6.5120148580634699E-4</v>
+      <c r="B8">
+        <v>0.27680940735929899</v>
+      </c>
+      <c r="C8">
+        <v>0.27583109838305903</v>
+      </c>
+      <c r="D8">
+        <v>0.27748043701285402</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.3988345172497999E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.4884382589856299E-4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0202423563451699E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.117178582772651</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.116659803702974</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.118286350638157</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.08000720952825E-3</v>
-      </c>
-      <c r="F9" s="9">
-        <v>4.4856506686903499E-4</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1.62797205292268E-3</v>
+      <c r="B9">
+        <v>0.114418391641586</v>
+      </c>
+      <c r="C9">
+        <v>0.114000051451789</v>
+      </c>
+      <c r="D9">
+        <v>0.11533222176149099</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.9858334558261797E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.68909700806622E-4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.4717416400722499E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11">
-        <v>7.0245423080380301E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6.9640039179217197E-2</v>
-      </c>
-      <c r="D10" s="11">
-        <v>7.09641957903063E-2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1.1646387647173699E-3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>8.8013216722867996E-4</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1.58875613577344E-3</v>
+      <c r="B10" s="1">
+        <v>6.8947509387163305E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.8361738319960702E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.9301363732093099E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.2400875250622898E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.48038238118335E-4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0760515737695099E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11">
-        <v>6.3510818725944097E-3</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6.3252504958874302E-3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6.4023132950296298E-3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1.0133157593738099E-4</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6.4249140011553107E-5</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1.87176933449975E-4</v>
+      <c r="B11" s="1">
+        <v>6.2456156565579403E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.21635032438227E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.29415916596984E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0517236408327501E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.5690341874146196E-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.6149755782237201E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11">
-        <v>2.7136571376670999E-3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2.7080686638545699E-3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2.71740075682818E-3</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1.5478696282870001E-5</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.14584668979656E-5</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2.3687809096183402E-5</v>
+      <c r="B12" s="1">
+        <v>2.7904579448768401E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.7725270807859598E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.8595188072942199E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.49326123945121E-5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.7877505629990101E-5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.0390543769515301E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0007468578004499E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.98466797369635E-3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.05894736049158E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8.5672592607639802E-5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.7430620365369701E-5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1.7507730500417E-4</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12">
-        <v>0.13615849256475401</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.135465669526214</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.13691847831978499</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.15464435739752E-3</v>
-      </c>
-      <c r="F14" s="13">
-        <v>8.9543903373298899E-4</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1.5306835438549701E-3</v>
+      <c r="B14">
+        <v>0.13406362075837899</v>
+      </c>
+      <c r="C14">
+        <v>0.13325503733904001</v>
+      </c>
+      <c r="D14">
+        <v>0.13523324641547699</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.4960582331140699E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.6206581940920404E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9899749452288E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13">
-        <v>8.7466147158342302E-3</v>
-      </c>
-      <c r="C15" s="13">
-        <v>8.7029892031280399E-3</v>
-      </c>
-      <c r="D15" s="13">
-        <v>8.7797411471813806E-3</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.0952052244216101E-4</v>
-      </c>
-      <c r="F15" s="13">
-        <v>8.4143455579545101E-5</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1.7360745600375E-4</v>
+      <c r="B15" s="1">
+        <v>8.6473917659104296E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.6237615259831101E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.7109173595849299E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0138785350676199E-4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.0929456844368698E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.8549708342485501E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3.0022429490935902E-3</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2.9942715302109998E-3</v>
-      </c>
-      <c r="D16" s="13">
-        <v>3.0220826660595501E-3</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3.9967598437604801E-5</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.05326185847002E-5</v>
-      </c>
-      <c r="G16" s="13">
-        <v>7.30846895354175E-5</v>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.8125368840127797E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.7974684968610801E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.8337395803311799E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.3314229670880003E-5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.6734099524379702E-5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.2878887571954805E-5</v>
       </c>
     </row>
   </sheetData>
@@ -7023,13 +6973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="1">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7038,60 +6985,60 @@
     <col min="8" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <f>nf_bench!B3</f>
-        <v>1.2933622909804301</v>
+        <v>1.1966524324610199</v>
       </c>
       <c r="C2" s="5">
         <f>nf_bench!B6</f>
-        <v>1.03121082369216</v>
+        <v>1.0092496700684299</v>
       </c>
       <c r="D2" s="5">
         <f>nf_bench!B10</f>
-        <v>7.0245423080380301E-2</v>
+        <v>6.8947509387163305E-2</v>
       </c>
       <c r="E2" s="5">
         <f>nf_bench!B14</f>
-        <v>0.13615849256475401</v>
+        <v>0.13406362075837899</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="str">
@@ -7100,15 +7047,15 @@
       </c>
       <c r="H2" s="3">
         <f>C2*1000</f>
-        <v>1031.2108236921599</v>
+        <v>1009.24967006843</v>
       </c>
       <c r="I2" s="4">
         <f>D2*1000</f>
-        <v>70.245423080380306</v>
+        <v>68.947509387163308</v>
       </c>
       <c r="J2">
         <f>H2/I2</f>
-        <v>14.68011406966925</v>
+        <v>14.637942386013624</v>
       </c>
       <c r="K2" t="str">
         <f>A2</f>
@@ -7116,32 +7063,32 @@
       </c>
       <c r="L2" s="4">
         <f>D2*1000</f>
-        <v>70.245423080380306</v>
+        <v>68.947509387163308</v>
       </c>
       <c r="M2" s="4">
         <f>E2*1000</f>
-        <v>136.15849256475403</v>
+        <v>134.06362075837899</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <f>nf_bench!B4</f>
-        <v>2.20741883785437</v>
+        <v>2.19978748604444</v>
       </c>
       <c r="C3" s="5">
         <f>nf_bench!B8</f>
-        <v>0.281286731756893</v>
+        <v>0.27680940735929899</v>
       </c>
       <c r="D3" s="5">
         <f>nf_bench!B11</f>
-        <v>6.3510818725944097E-3</v>
+        <v>6.2456156565579403E-3</v>
       </c>
       <c r="E3" s="5">
         <f>nf_bench!B15</f>
-        <v>8.7466147158342302E-3</v>
+        <v>8.6473917659104296E-3</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="str">
@@ -7150,15 +7097,15 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H4" si="0">C3*1000</f>
-        <v>281.286731756893</v>
+        <v>276.80940735929897</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I4" si="1">D3*1000</f>
-        <v>6.3510818725944098</v>
+        <v>6.2456156565579404</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" si="2">H3/I3</f>
-        <v>44.289577334953755</v>
+        <v>44.320595851691124</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K4" si="3">A3</f>
@@ -7166,32 +7113,35 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L4" si="4">D3*1000</f>
-        <v>6.3510818725944098</v>
+        <v>6.2456156565579404</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M4" si="5">E3*1000</f>
-        <v>8.7466147158342302</v>
+        <v>8.6473917659104291</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <f>nf_bench!B5</f>
-        <v>1.0081946555176999</v>
+        <v>0.98206448406441804</v>
       </c>
       <c r="C4" s="5">
         <f>nf_bench!B9</f>
-        <v>0.117178582772651</v>
+        <v>0.114418391641586</v>
       </c>
       <c r="D4" s="5">
         <f>nf_bench!B12</f>
-        <v>2.7136571376670999E-3</v>
+        <v>2.7904579448768401E-3</v>
       </c>
       <c r="E4" s="5">
         <f>nf_bench!B16</f>
-        <v>3.0022429490935902E-3</v>
+        <v>4.8125368840127797E-3</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="str">
@@ -7200,15 +7150,15 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>117.178582772651</v>
+        <v>114.418391641586</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="1"/>
-        <v>2.7136571376670999</v>
+        <v>2.7904579448768398</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>43.181056717204918</v>
+        <v>41.003445994107608</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
@@ -7216,11 +7166,11 @@
       </c>
       <c r="L4" s="4">
         <f t="shared" si="4"/>
-        <v>2.7136571376670999</v>
+        <v>2.7904579448768398</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="5"/>
-        <v>3.0022429490935902</v>
+        <v>4.81253688401278</v>
       </c>
     </row>
   </sheetData>

--- a/results/sixteen.local/ifl_talk/nf_bench.xlsx
+++ b/results/sixteen.local/ifl_talk/nf_bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweirich/github/haskell/lambda-n-ways/results/sixteen.local/ifl_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66130E4E-8B47-1F48-9FEA-BC61A4F00611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2BBF3-B51C-9447-9E89-096A530001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="4220" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6976,7 +6976,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/sixteen.local/ifl_talk/nf_bench.xlsx
+++ b/results/sixteen.local/ifl_talk/nf_bench.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sweirich/github/haskell/lambda-n-ways/results/sixteen.local/ifl_talk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2BBF3-B51C-9447-9E89-096A530001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60EC8F-D9CD-3B41-8F14-659873B8EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="4220" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19320" yWindow="3480" windowWidth="29860" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nf_bench" sheetId="1" r:id="rId1"/>
     <sheet name="charts" sheetId="2" r:id="rId2"/>
+    <sheet name="hackage" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">hackage!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">hackage!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">hackage!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">hackage!$B$2:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -119,6 +126,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>Unbound</t>
+  </si>
+  <si>
+    <t>unbound-generics</t>
+  </si>
+  <si>
+    <t>bound</t>
   </si>
 </sst>
 </file>
@@ -3422,6 +3444,364 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Benchmark times (seconds)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hackage!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>nom</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nominal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unbound-generics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hackage!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-295B-044F-99BD-DC03F8C89B2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1245790207"/>
+        <c:axId val="1245791855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1245790207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245791855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245791855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245790207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3622,6 +4002,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5635,6 +6055,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6322,6 +7245,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FAB883-109E-F64E-A0F6-CB111A36B551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6621,8 +7585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6975,8 +7939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7177,4 +8141,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D952763-1FBA-684A-BDF8-9A8624A967EA}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>